--- a/AgEvidence_US/data/normative-effects.xlsx
+++ b/AgEvidence_US/data/normative-effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_US\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8424F3-EC5C-7747-962F-BC658B8C8B0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA390E-7D3F-418E-AA43-5F21C228FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="26280" windowHeight="16620" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{E2614878-5E79-439B-BF47-44ECB7DBED54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,12 +808,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,84 +914,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1007,7 +956,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,136 +1297,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790928A-FDEF-4501-A63F-C28CBDB4D383}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D290" sqref="D290"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="63.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="24.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="K4" s="5" t="s">
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="K4" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1471,19 +1443,19 @@
       <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1492,10 +1464,10 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1504,7 +1476,7 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1513,31 +1485,31 @@
       <c r="F7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1546,7 +1518,7 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1555,21 +1527,21 @@
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1587,10 +1559,10 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1608,10 +1580,10 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1629,10 +1601,10 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1650,10 +1622,10 @@
       <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1662,19 +1634,19 @@
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1683,7 +1655,7 @@
       <c r="C15" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1692,10 +1664,10 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1704,7 +1676,7 @@
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1713,42 +1685,42 @@
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="39" t="s">
+      <c r="G16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="I16" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="F17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1757,7 +1729,7 @@
       <c r="C18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1766,10 +1738,10 @@
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1778,7 +1750,7 @@
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1787,10 +1759,10 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1799,7 +1771,7 @@
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1808,31 +1780,31 @@
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1850,10 +1822,10 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1871,10 +1843,10 @@
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1892,10 +1864,10 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1913,10 +1885,10 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1934,10 +1906,10 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1955,21 +1927,21 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="I27" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1987,42 +1959,42 @@
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="I28" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2031,7 +2003,7 @@
       <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2040,10 +2012,10 @@
       <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2061,10 +2033,10 @@
       <c r="F31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2073,7 +2045,7 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2082,10 +2054,10 @@
       <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2103,10 +2075,10 @@
       <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2115,7 +2087,7 @@
       <c r="C34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2124,19 +2096,19 @@
       <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2145,52 +2117,52 @@
       <c r="F35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="28" t="s">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="28" t="s">
+      <c r="D36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="F36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2199,7 +2171,7 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -2208,10 +2180,10 @@
       <c r="F38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2229,10 +2201,10 @@
       <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2241,7 +2213,7 @@
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -2250,34 +2222,34 @@
       <c r="F40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="36"/>
-      <c r="K41" s="43" t="s">
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="K41" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2295,19 +2267,19 @@
       <c r="F42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2316,54 +2288,54 @@
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J43" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="J43" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="36" t="s">
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+      <c r="I44" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2381,11 +2353,11 @@
       <c r="F45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
+      <c r="G45" s="11"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2403,11 +2375,11 @@
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="G46" s="11"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2425,10 +2397,10 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="36"/>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2446,10 +2418,10 @@
       <c r="F48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2458,7 +2430,7 @@
       <c r="C49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2467,10 +2439,10 @@
       <c r="F49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="36"/>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2479,7 +2451,7 @@
       <c r="C50" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2488,10 +2460,10 @@
       <c r="F50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="36"/>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2509,177 +2481,177 @@
       <c r="F51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="36"/>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="36"/>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="28" t="s">
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="28" t="s">
+      <c r="D53" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="44" t="s">
+      <c r="F53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="49" t="s">
+      <c r="D54" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="28" t="s">
+      <c r="G54" s="11"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="28" t="s">
+      <c r="D55" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="28" t="s">
+      <c r="F55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="28" t="s">
+      <c r="D56" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="36"/>
-      <c r="I56" s="38"/>
-      <c r="K56" s="50" t="s">
+      <c r="F56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="I56" s="13"/>
+      <c r="K56" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="15" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="15" t="s">
+      <c r="D57" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="41"/>
-    </row>
-    <row r="58" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="15" t="s">
+      <c r="F57" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="15" t="s">
+      <c r="D58" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G58" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="39" t="s">
+      <c r="G58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J58" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>175</v>
       </c>
@@ -2698,9 +2670,9 @@
       <c r="F59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="36"/>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>175</v>
       </c>
@@ -2710,7 +2682,7 @@
       <c r="C60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2719,9 +2691,9 @@
       <c r="F60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="36"/>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>175</v>
       </c>
@@ -2740,9 +2712,9 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="36"/>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>175</v>
       </c>
@@ -2761,9 +2733,9 @@
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="36"/>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>175</v>
       </c>
@@ -2773,7 +2745,7 @@
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -2782,9 +2754,9 @@
       <c r="F63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="36"/>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>175</v>
       </c>
@@ -2794,18 +2766,18 @@
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="36"/>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>175</v>
       </c>
@@ -2815,7 +2787,7 @@
       <c r="C65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2824,20 +2796,20 @@
       <c r="F65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="39" t="s">
+      <c r="G65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I65" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J65" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>175</v>
       </c>
@@ -2847,7 +2819,7 @@
       <c r="C66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -2856,20 +2828,20 @@
       <c r="F66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="39" t="s">
+      <c r="G66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J66" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>175</v>
       </c>
@@ -2879,20 +2851,20 @@
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="36"/>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="11"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>175</v>
       </c>
@@ -2902,7 +2874,7 @@
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -2911,20 +2883,20 @@
       <c r="F68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="36" t="s">
+      <c r="G68" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I68" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="J68" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I68" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>175</v>
       </c>
@@ -2943,9 +2915,9 @@
       <c r="F69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="36"/>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>175</v>
       </c>
@@ -2964,9 +2936,9 @@
       <c r="F70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="36"/>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>175</v>
       </c>
@@ -2985,9 +2957,9 @@
       <c r="F71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="36"/>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>175</v>
       </c>
@@ -3006,9 +2978,9 @@
       <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="36"/>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>175</v>
       </c>
@@ -3027,9 +2999,9 @@
       <c r="F73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="36"/>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>175</v>
       </c>
@@ -3048,9 +3020,9 @@
       <c r="F74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="36"/>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>175</v>
       </c>
@@ -3060,7 +3032,7 @@
       <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -3069,30 +3041,30 @@
       <c r="F75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="36"/>
-    </row>
-    <row r="76" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="15" t="s">
+      <c r="D76" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="F76" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="38"/>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>175</v>
       </c>
@@ -3102,18 +3074,18 @@
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="36"/>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>175</v>
       </c>
@@ -3123,7 +3095,7 @@
       <c r="C78" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -3132,20 +3104,20 @@
       <c r="F78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" s="39" t="s">
+      <c r="G78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I78" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J78" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I78" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>175</v>
       </c>
@@ -3155,7 +3127,7 @@
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -3164,13 +3136,13 @@
       <c r="F79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="G79" s="11"/>
+      <c r="I79" s="11"/>
       <c r="K79" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>175</v>
       </c>
@@ -3189,9 +3161,9 @@
       <c r="F80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="36"/>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>175</v>
       </c>
@@ -3201,18 +3173,18 @@
       <c r="C81" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="D81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="36"/>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>175</v>
       </c>
@@ -3222,7 +3194,7 @@
       <c r="C82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -3231,57 +3203,57 @@
       <c r="F82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="36"/>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" s="28" t="s">
+      <c r="D83" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="36"/>
-      <c r="I83" s="40"/>
-      <c r="K83" s="15"/>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="11"/>
+      <c r="I83" s="15"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="28" t="s">
+      <c r="D84" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F84" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="36"/>
-      <c r="I84" s="38"/>
-      <c r="K84" s="50" t="s">
+      <c r="F84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="I84" s="13"/>
+      <c r="K84" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>128</v>
       </c>
@@ -3300,9 +3272,9 @@
       <c r="F85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="36"/>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>128</v>
       </c>
@@ -3321,9 +3293,9 @@
       <c r="F86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="36"/>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>128</v>
       </c>
@@ -3333,7 +3305,7 @@
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -3342,9 +3314,9 @@
       <c r="F87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="36"/>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>128</v>
       </c>
@@ -3363,9 +3335,9 @@
       <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="36"/>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>128</v>
       </c>
@@ -3375,18 +3347,18 @@
       <c r="C89" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="D89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="36"/>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>128</v>
       </c>
@@ -3396,7 +3368,7 @@
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -3405,9 +3377,9 @@
       <c r="F90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="36"/>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>128</v>
       </c>
@@ -3426,9 +3398,9 @@
       <c r="F91" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G91" s="36"/>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>128</v>
       </c>
@@ -3447,9 +3419,9 @@
       <c r="F92" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G92" s="36"/>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>128</v>
       </c>
@@ -3468,9 +3440,9 @@
       <c r="F93" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="36"/>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>128</v>
       </c>
@@ -3489,9 +3461,9 @@
       <c r="F94" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G94" s="36"/>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>128</v>
       </c>
@@ -3510,9 +3482,9 @@
       <c r="F95" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G95" s="36"/>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>128</v>
       </c>
@@ -3531,9 +3503,9 @@
       <c r="F96" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G96" s="36"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>128</v>
       </c>
@@ -3543,7 +3515,7 @@
       <c r="C97" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -3552,9 +3524,9 @@
       <c r="F97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="36"/>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>128</v>
       </c>
@@ -3564,7 +3536,7 @@
       <c r="C98" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -3573,9 +3545,9 @@
       <c r="F98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="36"/>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>128</v>
       </c>
@@ -3585,7 +3557,7 @@
       <c r="C99" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -3594,12 +3566,12 @@
       <c r="F99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G99" s="36"/>
+      <c r="G99" s="11"/>
       <c r="K99" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>128</v>
       </c>
@@ -3618,9 +3590,9 @@
       <c r="F100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="36"/>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>128</v>
       </c>
@@ -3630,7 +3602,7 @@
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3639,13 +3611,13 @@
       <c r="F101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="G101" s="11"/>
+      <c r="I101" s="11"/>
       <c r="K101" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>128</v>
       </c>
@@ -3664,9 +3636,9 @@
       <c r="F102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="36"/>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>128</v>
       </c>
@@ -3685,9 +3657,9 @@
       <c r="F103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="36"/>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>128</v>
       </c>
@@ -3706,120 +3678,120 @@
       <c r="F104" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G104" s="36"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="28" t="s">
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="28" t="s">
+      <c r="D105" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F105" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="36"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="5" t="s">
+      <c r="F105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="5" t="s">
+      <c r="D106" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="36"/>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="5" t="s">
+      <c r="F106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="D107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="36"/>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="5" t="s">
+      <c r="F107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E108" s="5" t="s">
+      <c r="D108" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="36"/>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="F108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="D109" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="36"/>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3828,365 +3800,365 @@
       <c r="D110" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="36"/>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="3" t="s">
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E111" s="3" t="s">
+      <c r="D111" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G111" s="36"/>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="5" t="s">
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F112" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="36" t="s">
+      <c r="F112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="36" t="s">
+      <c r="H112" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I112" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J112" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="5" t="s">
+      <c r="I112" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="36"/>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="F113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E114" s="3" t="s">
+      <c r="D114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="36"/>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="3" t="s">
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E115" s="3" t="s">
+      <c r="D115" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G115" s="36"/>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="3" t="s">
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G117" s="36"/>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G118" s="36" t="s">
+      <c r="G118" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H118" s="36" t="s">
+      <c r="H118" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I118" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J118" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="15" t="s">
+      <c r="I118" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D119" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E119" s="15" t="s">
+      <c r="D119" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="F119" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" s="38"/>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="F119" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="36"/>
-    </row>
-    <row r="121" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="15" t="s">
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E121" s="15" t="s">
+      <c r="D121" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="38"/>
-    </row>
-    <row r="122" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="15" t="s">
+      <c r="F121" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D122" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E122" s="15" t="s">
+      <c r="D122" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E122" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F122" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="38"/>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="F122" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E123" s="3" t="s">
+      <c r="D123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="36"/>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="36"/>
-    </row>
-    <row r="125" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="15" t="s">
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E125" s="24" t="s">
+      <c r="D125" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="F125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" s="40"/>
-    </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="F125" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="15"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -4195,93 +4167,93 @@
       <c r="F126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="36"/>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="3" t="s">
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G127" s="36"/>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" s="3" t="s">
+      <c r="D128" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="39" t="s">
+      <c r="G128" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I128" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J128" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="I128" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E129" s="3" t="s">
+      <c r="D129" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G129" s="36"/>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="G129" s="11"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -4290,61 +4262,61 @@
       <c r="F130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G130" s="36"/>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="3" t="s">
+      <c r="G130" s="11"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G131" s="36"/>
-    </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="G131" s="11"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E132" s="3" t="s">
+      <c r="D132" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G132" s="36"/>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="G132" s="11"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -4353,488 +4325,488 @@
       <c r="F133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G133" s="36"/>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="G133" s="11"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" s="3" t="s">
+      <c r="D134" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>143</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G134" s="36" t="s">
+      <c r="G134" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H134" s="36" t="s">
+      <c r="H134" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I134" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="J134" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="5" t="s">
+      <c r="I134" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F135" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G135" s="36"/>
-    </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" s="5" t="s">
+      <c r="F135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="11"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G136" s="36"/>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="G136" s="11"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E137" s="3" t="s">
+      <c r="D137" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G137" s="36"/>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="5" t="s">
+      <c r="G137" s="11"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G138" s="36"/>
-    </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="3" t="s">
+      <c r="G138" s="11"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E139" s="3" t="s">
+      <c r="D139" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G139" s="36"/>
-    </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="3" t="s">
+      <c r="G139" s="11"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G140" s="36"/>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="29" t="s">
+      <c r="G140" s="11"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C141" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D141" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" s="29" t="s">
+      <c r="D141" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F141" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" s="36"/>
-    </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="5" t="s">
+      <c r="F141" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="11"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E142" s="5" t="s">
+      <c r="D142" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F142" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G142" s="36"/>
-    </row>
-    <row r="143" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="3" t="s">
+      <c r="F142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="11"/>
+    </row>
+    <row r="143" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G143" s="36"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="10"/>
-    </row>
-    <row r="144" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="29" t="s">
+      <c r="G143" s="11"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C144" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E144" s="29" t="s">
+      <c r="D144" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F144" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144" s="36"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="10"/>
-    </row>
-    <row r="145" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="3" t="s">
+      <c r="F144" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="11"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="D145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G145" s="36"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="37"/>
-      <c r="K145" s="10"/>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="3" t="s">
+      <c r="G145" s="11"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G146" s="36" t="s">
+      <c r="G146" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="36" t="s">
+      <c r="H146" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I146" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J146" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="29" t="s">
+      <c r="I146" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C147" s="29" t="s">
+      <c r="C147" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D147" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E147" s="29" t="s">
+      <c r="D147" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E147" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F147" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" s="36"/>
-    </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="3" t="s">
+      <c r="F147" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="11"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="D148" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G148" s="36"/>
-    </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="3" t="s">
+      <c r="G148" s="11"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E149" s="3" t="s">
+      <c r="D149" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G149" s="36"/>
-    </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="3" t="s">
+      <c r="G149" s="11"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E150" s="6" t="s">
+      <c r="D150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E150" s="28" t="s">
         <v>216</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G150" s="36"/>
-    </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="G150" s="11"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E151" s="5" t="s">
+      <c r="D151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G151" s="36"/>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="F151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="11"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E152" s="3" t="s">
+      <c r="D152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G152" s="36"/>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="G152" s="11"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E153" s="3" t="s">
+      <c r="D153" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G153" s="36"/>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="3" t="s">
+      <c r="G153" s="11"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G154" s="36"/>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="3" t="s">
+      <c r="G154" s="11"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -4843,99 +4815,99 @@
       <c r="D155" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G155" s="36"/>
-    </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="3" t="s">
+      <c r="G155" s="11"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G156" s="36"/>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="3" t="s">
+      <c r="G156" s="11"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G157" s="36"/>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="3" t="s">
+      <c r="G157" s="11"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E158" s="3" t="s">
+      <c r="D158" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G158" s="36" t="s">
+      <c r="G158" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H158" s="36" t="s">
+      <c r="H158" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I158" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J158" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="3" t="s">
+      <c r="I158" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -4944,45 +4916,45 @@
       <c r="F159" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G159" s="36" t="s">
+      <c r="G159" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H159" s="36" t="s">
+      <c r="H159" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I159" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J159" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="3" t="s">
+      <c r="I159" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E160" s="3" t="s">
+      <c r="D160" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G160" s="36"/>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="3" t="s">
+      <c r="G160" s="11"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -4991,617 +4963,617 @@
       <c r="D161" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G161" s="36"/>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="3" t="s">
+      <c r="G161" s="11"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E162" s="3" t="s">
+      <c r="D162" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G162" s="36"/>
-    </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="3" t="s">
+      <c r="G162" s="11"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E163" s="3" t="s">
+      <c r="D163" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G163" s="36"/>
-    </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="3" t="s">
+      <c r="G163" s="11"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G164" s="36"/>
-    </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="3" t="s">
+      <c r="G164" s="11"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E165" s="3" t="s">
+      <c r="D165" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G165" s="36"/>
-    </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="3" t="s">
+      <c r="G165" s="11"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G166" s="36"/>
-    </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="5" t="s">
+      <c r="G166" s="11"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F167" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G167" s="36"/>
-    </row>
-    <row r="168" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="15" t="s">
+      <c r="F167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="11"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E168" s="15" t="s">
+      <c r="E168" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F168" s="25" t="s">
+      <c r="F168" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G168" s="38" t="s">
+      <c r="G168" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H168" s="40" t="s">
+      <c r="H168" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I168" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="J168" s="38" t="s">
+      <c r="I168" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J168" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="3" t="s">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E169" s="3" t="s">
+      <c r="D169" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G169" s="36"/>
-    </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="3" t="s">
+      <c r="G169" s="11"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G170" s="36"/>
-    </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="3" t="s">
+      <c r="G170" s="11"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E171" s="3" t="s">
+      <c r="D171" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G171" s="36"/>
-    </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="3" t="s">
+      <c r="G171" s="11"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G172" s="36"/>
-    </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="3" t="s">
+      <c r="G172" s="11"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A173" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G173" s="36"/>
-    </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="3" t="s">
+      <c r="G173" s="11"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A174" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E174" s="3" t="s">
+      <c r="D174" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G174" s="36" t="s">
+      <c r="G174" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H174" s="36" t="s">
+      <c r="H174" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I174" s="36" t="s">
+      <c r="I174" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J174" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="3" t="s">
+      <c r="J174" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A175" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E175" s="3" t="s">
+      <c r="D175" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G175" s="36" t="s">
+      <c r="G175" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H175" s="36" t="s">
+      <c r="H175" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I175" s="36" t="s">
+      <c r="I175" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="J175" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" s="5" t="s">
+      <c r="J175" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A176" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F176" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G176" s="36" t="s">
+      <c r="F176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H176" s="37" t="s">
+      <c r="H176" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I176" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="J176" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K176" s="12"/>
-    </row>
-    <row r="177" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" s="15" t="s">
+      <c r="I176" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J176" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K176" s="5"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A177" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D177" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E177" s="15" t="s">
+      <c r="D177" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E177" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F177" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G177" s="38"/>
-    </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" s="3" t="s">
+      <c r="F177" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="13"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A178" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G178" s="36"/>
-    </row>
-    <row r="179" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="15" t="s">
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D179" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E179" s="15" t="s">
+      <c r="D179" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E179" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F179" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G179" s="38"/>
-    </row>
-    <row r="180" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="15" t="s">
+      <c r="F179" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" s="13"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A180" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D180" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E180" s="15" t="s">
+      <c r="D180" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E180" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F180" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G180" s="38"/>
-    </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" s="3" t="s">
+      <c r="F180" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="13"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A181" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E181" s="3" t="s">
+      <c r="D181" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G181" s="36"/>
-    </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="3" t="s">
+      <c r="G181" s="11"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A182" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G182" s="36"/>
-    </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" s="3" t="s">
+      <c r="G182" s="11"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A183" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E183" s="3" t="s">
+      <c r="D183" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G183" s="36"/>
-    </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="3" t="s">
+      <c r="G183" s="11"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A184" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E184" s="3" t="s">
+      <c r="D184" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G184" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H184" s="39" t="s">
+      <c r="G184" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I184" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J184" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185" s="3" t="s">
+      <c r="I184" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J184" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A185" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E185" s="3" t="s">
+      <c r="D185" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G185" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" s="39" t="s">
+      <c r="G185" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I185" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J185" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186" s="3" t="s">
+      <c r="I185" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J185" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E186" s="3" t="s">
+      <c r="D186" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G186" s="36"/>
-    </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="G186" s="11"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -5610,341 +5582,341 @@
       <c r="F187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G187" s="36"/>
-    </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188" s="3" t="s">
+      <c r="G187" s="11"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="D188" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G188" s="36"/>
-    </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B189" s="3" t="s">
+      <c r="G188" s="11"/>
+    </row>
+    <row r="189" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E189" s="3" t="s">
+      <c r="D189" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G189" s="36"/>
-    </row>
-    <row r="190" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190" s="20" t="s">
+      <c r="G189" s="11"/>
+    </row>
+    <row r="190" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D190" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E190" s="20" t="s">
+      <c r="D190" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E190" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="F190" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190" s="36"/>
-      <c r="K190" s="51"/>
-    </row>
-    <row r="191" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B191" s="20" t="s">
+      <c r="F190" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="11"/>
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C191" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D191" s="47" t="s">
+      <c r="D191" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E191" s="20" t="s">
+      <c r="E191" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F191" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G191" s="36"/>
-    </row>
-    <row r="192" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" s="20" t="s">
+      <c r="F191" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="11"/>
+    </row>
+    <row r="192" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="C192" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D192" s="47" t="s">
+      <c r="D192" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E192" s="20" t="s">
+      <c r="E192" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F192" s="32" t="s">
+      <c r="F192" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G192" s="36"/>
-    </row>
-    <row r="193" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" s="20" t="s">
+      <c r="G192" s="11"/>
+    </row>
+    <row r="193" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E193" s="20" t="s">
+      <c r="D193" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E193" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F193" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G193" s="36"/>
-    </row>
-    <row r="194" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" s="20" t="s">
+      <c r="F193" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="11"/>
+    </row>
+    <row r="194" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D194" s="17" t="s">
+      <c r="D194" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E194" s="17" t="s">
+      <c r="E194" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F194" s="32" t="s">
+      <c r="F194" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G194" s="36"/>
-    </row>
-    <row r="195" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B195" s="19" t="s">
+      <c r="G194" s="11"/>
+    </row>
+    <row r="195" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C195" s="45" t="s">
+      <c r="C195" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D195" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E195" s="19" t="s">
+      <c r="D195" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E195" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F195" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G195" s="36"/>
-    </row>
-    <row r="196" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" s="20" t="s">
+      <c r="F195" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="11"/>
+    </row>
+    <row r="196" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C196" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D196" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E196" s="20" t="s">
+      <c r="D196" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E196" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F196" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G196" s="36"/>
-      <c r="K196" s="51"/>
-    </row>
-    <row r="197" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="13" t="s">
+      <c r="F196" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D197" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E197" s="14" t="s">
+      <c r="D197" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E197" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F197" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G197" s="40"/>
-      <c r="H197" s="40"/>
-      <c r="I197" s="40"/>
-      <c r="K197" s="34" t="s">
+      <c r="F197" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="K197" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" s="20" t="s">
+    <row r="198" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="C198" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="47" t="s">
+      <c r="D198" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E198" s="20" t="s">
+      <c r="E198" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F198" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G198" s="36"/>
-      <c r="H198" s="40"/>
-      <c r="I198" s="40"/>
-      <c r="K198" s="51"/>
-    </row>
-    <row r="199" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B199" s="19" t="s">
+      <c r="F198" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="11"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+      <c r="K198" s="20"/>
+    </row>
+    <row r="199" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D199" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E199" s="19" t="s">
+      <c r="D199" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E199" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F199" s="33" t="s">
+      <c r="F199" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G199" s="36"/>
-      <c r="H199" s="40"/>
-      <c r="I199" s="40"/>
-      <c r="K199" s="51"/>
-    </row>
-    <row r="200" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" s="20" t="s">
+      <c r="G199" s="11"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+      <c r="K199" s="20"/>
+    </row>
+    <row r="200" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D200" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E200" s="20" t="s">
+      <c r="D200" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E200" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F200" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G200" s="36"/>
-      <c r="I200" s="40"/>
-      <c r="K200" s="35"/>
-    </row>
-    <row r="201" spans="1:11" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B201" s="20" t="s">
+      <c r="F200" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="11"/>
+      <c r="I200" s="15"/>
+      <c r="K200" s="10"/>
+    </row>
+    <row r="201" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D201" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E201" s="20" t="s">
+      <c r="D201" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E201" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="F201" s="32" t="s">
+      <c r="F201" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G201" s="36"/>
-      <c r="I201" s="40"/>
-      <c r="K201" s="35"/>
-    </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="53" t="s">
+      <c r="G201" s="11"/>
+      <c r="I201" s="15"/>
+      <c r="K201" s="10"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C202" s="53" t="s">
+      <c r="C202" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D202" s="54" t="s">
+      <c r="D202" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E202" s="53" t="s">
+      <c r="E202" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F202" s="54" t="s">
+      <c r="F202" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="11" t="s">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -5959,41 +5931,41 @@
       <c r="E203" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F203" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="5" t="s">
+      <c r="F203" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D204" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F204" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B205" s="5" t="s">
+      <c r="F204" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D205" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -6003,17 +5975,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B206" s="5" t="s">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D206" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -6023,28 +5995,28 @@
         <v>46</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B207" s="30" t="s">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C207" s="30" t="s">
+      <c r="C207" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D207" s="56" t="s">
+      <c r="D207" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E207" s="30" t="s">
+      <c r="E207" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F207" s="30" t="s">
+      <c r="F207" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="10" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -6053,7 +6025,7 @@
       <c r="C208" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D208" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -6063,8 +6035,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="10" t="s">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -6073,7 +6045,7 @@
       <c r="C209" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -6083,28 +6055,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B210" s="3" t="s">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D210" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E210" s="3" t="s">
+      <c r="D210" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="10" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -6113,18 +6085,18 @@
       <c r="C211" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E211" s="4" t="s">
+      <c r="D211" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="10" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -6133,18 +6105,18 @@
       <c r="C212" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D212" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E212" s="4" t="s">
+      <c r="D212" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="10" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -6153,18 +6125,18 @@
       <c r="C213" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D213" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E213" s="4" t="s">
+      <c r="D213" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="10" t="s">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -6173,7 +6145,7 @@
       <c r="C214" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -6183,217 +6155,217 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C215" s="4" t="s">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E215" s="4" t="s">
+      <c r="D215" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B216" s="30" t="s">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C216" s="30" t="s">
+      <c r="C216" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D216" s="56" t="s">
+      <c r="D216" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E216" s="30" t="s">
+      <c r="E216" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F216" s="30" t="s">
+      <c r="F216" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B217" s="10" t="s">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B217" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D217" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E217" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F217" s="10" t="s">
+      <c r="F217" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B218" s="5" t="s">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D218" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F218" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B219" s="5" t="s">
+      <c r="F218" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D219" s="57" t="s">
+      <c r="D219" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E219" s="30" t="s">
+      <c r="E219" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F219" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B220" s="30" t="s">
+      <c r="F219" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C220" s="55"/>
-    </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B221" s="30" t="s">
+      <c r="C220" s="24"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C221" s="30" t="s">
+      <c r="C221" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D221" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E221" s="30" t="s">
+      <c r="D221" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E221" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F221" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B222" s="3" t="s">
+      <c r="F221" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D222" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E222" s="3" t="s">
+      <c r="D222" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B223" s="3" t="s">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D223" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E223" s="3" t="s">
+      <c r="D223" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B224" s="3" t="s">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D224" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E224" s="30" t="s">
+      <c r="D224" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E224" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B225" s="3" t="s">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A225" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D225" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E225" s="58" t="s">
+      <c r="D225" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E225" s="39" t="s">
         <v>220</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="10" t="s">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A226" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -6402,7 +6374,7 @@
       <c r="C226" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -6412,8 +6384,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="10" t="s">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A227" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -6431,21 +6403,21 @@
       <c r="F227" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G227" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H227" s="39" t="s">
+      <c r="G227" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I227" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J227" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="10" t="s">
+      <c r="I227" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J227" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A228" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -6463,21 +6435,21 @@
       <c r="F228" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G228" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H228" s="39" t="s">
+      <c r="G228" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I228" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J228" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="10" t="s">
+      <c r="I228" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A229" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -6486,38 +6458,38 @@
       <c r="C229" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D229" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E229" s="30" t="s">
+      <c r="D229" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E229" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F229" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B230" s="30" t="s">
+      <c r="F229" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A230" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C230" s="30" t="s">
+      <c r="C230" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D230" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E230" s="30" t="s">
+      <c r="D230" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E230" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F230" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="10" t="s">
+      <c r="F230" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A231" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -6536,8 +6508,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="10" t="s">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A232" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -6556,131 +6528,131 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B233" s="3" t="s">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A233" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D233" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E233" s="3" t="s">
+      <c r="D233" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B234" s="4" t="s">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D234" s="56" t="s">
+      <c r="D234" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E234" s="56" t="s">
+      <c r="E234" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F234" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="B235" s="56" t="s">
+      <c r="F234" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A235" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B235" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C235" s="56" t="s">
+      <c r="C235" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D235" s="56" t="s">
+      <c r="D235" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E235" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B236" s="10" t="s">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A236" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B236" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C236" s="10" t="s">
+      <c r="C236" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D236" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E236" s="10" t="s">
+      <c r="D236" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E236" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F236" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="10" t="s">
+      <c r="F236" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A237" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C237" s="4" t="s">
+      <c r="B237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E237" s="4" t="s">
+      <c r="E237" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="10" t="s">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A238" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C238" s="4" t="s">
+      <c r="B238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="E238" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="10" t="s">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A239" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -6689,18 +6661,18 @@
       <c r="D239" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E239" s="4" t="s">
+      <c r="E239" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="10" t="s">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A240" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -6709,175 +6681,175 @@
       <c r="D240" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E240" s="4" t="s">
+      <c r="E240" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="10" t="s">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A241" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C241" s="4" t="s">
+      <c r="B241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E241" s="4" t="s">
+      <c r="E241" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="10" t="s">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A242" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C242" s="4" t="s">
+      <c r="B242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E242" s="4" t="s">
+      <c r="E242" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" s="10" t="s">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A243" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D243" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E243" s="4" t="s">
+      <c r="D243" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="10" t="s">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A244" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B244" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C244" s="4" t="s">
+      <c r="B244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E244" s="4" t="s">
+      <c r="E244" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="10" t="s">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A245" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C245" s="4" t="s">
+      <c r="B245" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E245" s="4" t="s">
+      <c r="E245" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="10" t="s">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A246" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C246" s="4" t="s">
+      <c r="B246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E246" s="4" t="s">
+      <c r="E246" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="10" t="s">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A247" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C247" s="4" t="s">
+      <c r="B247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E247" s="4" t="s">
+      <c r="E247" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="10" t="s">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A248" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C248" s="4" t="s">
+      <c r="B248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E248" s="4" t="s">
+      <c r="E248" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="10" t="s">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A249" s="27" t="s">
         <v>175</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -6886,7 +6858,7 @@
       <c r="C249" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D249" s="4" t="s">
+      <c r="D249" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E249" s="1" t="s">
@@ -6896,8 +6868,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="10" t="s">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A250" s="27" t="s">
         <v>175</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -6915,27 +6887,27 @@
       <c r="F250" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G250" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H250" s="39" t="s">
+      <c r="G250" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I250" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="J250" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="10" t="s">
+      <c r="I250" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J250" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A251" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C251" s="4" t="s">
+      <c r="B251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -6948,51 +6920,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B252" s="30" t="s">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A252" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C252" s="30" t="s">
+      <c r="C252" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D252" s="56" t="s">
+      <c r="D252" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E252" s="30" t="s">
+      <c r="E252" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F252" s="30" t="s">
+      <c r="F252" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B253" s="3" t="s">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A253" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E253" s="3" t="s">
+      <c r="D253" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B254" s="4" t="s">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A254" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -7001,315 +6973,315 @@
       <c r="D254" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="E254" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B255" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C255" s="56" t="s">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A255" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="D255" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E255" s="56" t="s">
+      <c r="D255" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E255" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="F255" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B256" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C256" s="56" t="s">
+      <c r="F255" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A256" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="D256" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E256" s="56" t="s">
+      <c r="D256" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E256" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F256" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B257" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C257" s="56" t="s">
+      <c r="F256" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="D257" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E257" s="56" t="s">
+      <c r="D257" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E257" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="F257" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B258" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C258" s="56" t="s">
+      <c r="F257" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="D258" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E258" s="56" t="s">
+      <c r="D258" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E258" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F258" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B259" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C259" s="56" t="s">
+      <c r="F258" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D259" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E259" s="56" t="s">
+      <c r="D259" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E259" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F259" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B260" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C260" s="56" t="s">
+      <c r="F259" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D260" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E260" s="56" t="s">
+      <c r="D260" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E260" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="F260" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C261" s="4" t="s">
+      <c r="F260" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E261" s="4" t="s">
+      <c r="E261" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C262" s="4" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E262" s="4" t="s">
+      <c r="E262" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C263" s="6" t="s">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D263" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E263" s="6" t="s">
+      <c r="D263" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E263" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="F263" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C264" s="4" t="s">
+      <c r="F263" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E264" s="4" t="s">
+      <c r="E264" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C265" s="4" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E265" s="4" t="s">
+      <c r="E265" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C266" s="4" t="s">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="E266" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B267" s="5" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D267" s="7" t="s">
+      <c r="D267" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E267" s="5" t="s">
+      <c r="E267" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F267" s="5" t="s">
+      <c r="F267" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B268" s="5" t="s">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C268" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D268" s="7" t="s">
+      <c r="D268" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F268" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B269" s="5" t="s">
+      <c r="F268" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C269" s="5" t="s">
+      <c r="C269" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="D269" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F269" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="10" t="s">
+      <c r="F269" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -7328,88 +7300,88 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B271" s="4" t="s">
+    <row r="271" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A271" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E271" s="30" t="s">
+      <c r="E271" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B272" s="30" t="s">
+    <row r="272" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A272" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B272" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C272" s="30" t="s">
+      <c r="C272" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D272" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E272" s="30" t="s">
+      <c r="D272" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E272" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F272" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="55" t="s">
+      <c r="F272" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B273" s="56" t="s">
+      <c r="B273" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D273" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E273" s="56" t="s">
+      <c r="D273" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E273" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F273" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="55" t="s">
+      <c r="F273" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B274" s="56" t="s">
+      <c r="B274" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D274" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E274" s="56" t="s">
+      <c r="D274" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E274" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="F274" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="55" t="s">
+      <c r="F274" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -7421,174 +7393,174 @@
       <c r="D275" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E275" s="56" t="s">
+      <c r="E275" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F275" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="55" t="s">
+      <c r="F275" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B276" s="56" t="s">
+      <c r="B276" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D276" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E276" s="56" t="s">
+      <c r="D276" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E276" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F276" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B277" s="3" t="s">
+      <c r="F276" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D277" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E277" s="3" t="s">
+      <c r="D277" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E277" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B278" s="3" t="s">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D278" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E278" s="3" t="s">
+      <c r="D278" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B279" s="5" t="s">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D279" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E279" s="5" t="s">
+      <c r="D279" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B280" s="3" t="s">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D280" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E280" s="58" t="s">
+      <c r="D280" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E280" s="39" t="s">
         <v>221</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B281" s="10" t="s">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B281" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C281" s="10" t="s">
+      <c r="C281" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D281" s="10" t="s">
+      <c r="D281" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E281" s="10" t="s">
+      <c r="E281" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="F281" s="10" t="s">
+      <c r="F281" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="10" t="s">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B282" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C282" s="4" t="s">
+      <c r="B282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E282" s="4" t="s">
+      <c r="E282" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="10" t="s">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B283" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C283" s="4" t="s">
+      <c r="B283" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E283" s="4" t="s">
+      <c r="E283" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>175</v>
       </c>
@@ -7608,31 +7580,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C285" s="4" t="s">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E285" s="4" t="s">
+      <c r="E285" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B286" s="4" t="s">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -7641,18 +7613,18 @@
       <c r="D286" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E286" s="56" t="s">
+      <c r="E286" s="25" t="s">
         <v>239</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B287" s="4" t="s">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -7661,47 +7633,47 @@
       <c r="D287" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E287" s="56" t="s">
+      <c r="E287" s="25" t="s">
         <v>231</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B288" s="3" t="s">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D288" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E288" s="58" t="s">
+      <c r="D288" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E288" s="39" t="s">
         <v>200</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B289" s="3" t="s">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D289" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E289" s="3" t="s">
+      <c r="D289" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F289" s="1" t="s">
@@ -7709,18 +7681,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K289" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Nutrient Management"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Water Quality"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K289" xr:uid="{8B1360B6-23BC-4F49-9C86-2B3B194A8FE8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K201">
     <sortCondition ref="A2:A201"/>
   </sortState>
